--- a/Heat Loads Model.xlsx
+++ b/Heat Loads Model.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/Documents - SueMBP12 (1023)/College/Research/Nagy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B52C191-D90F-B941-9822-9403E7C68D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DE66AB-3FD3-964A-B262-00009009E956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" xr2:uid="{964DC40E-73CD-764B-ACEB-B3A40B7E4A3C}"/>
+    <workbookView xWindow="-8400" yWindow="460" windowWidth="28800" windowHeight="15540" xr2:uid="{964DC40E-73CD-764B-ACEB-B3A40B7E4A3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,21 +35,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>Aperture Diameter</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Aperture Heat Load</t>
   </si>
   <si>
     <t>X partial</t>
-  </si>
-  <si>
-    <t>Aperture Area</t>
   </si>
   <si>
     <t>Xnought</t>
@@ -93,29 +85,56 @@
     <t>F12 Cylinder (Used infinite concentric cylinder model)</t>
   </si>
   <si>
-    <t>Cylinder Diameter (cm)</t>
-  </si>
-  <si>
-    <t>Height (cm)</t>
-  </si>
-  <si>
     <t>Cylinder Heat Load (CHECK)</t>
   </si>
   <si>
     <t>Total Heat Load</t>
+  </si>
+  <si>
+    <t>Height (m)</t>
+  </si>
+  <si>
+    <t>Aperture Diameter (m)</t>
+  </si>
+  <si>
+    <t>Cylinder Diameter (m)</t>
+  </si>
+  <si>
+    <t>Temperature (K)</t>
+  </si>
+  <si>
+    <t>Aperture Area (m^2)</t>
+  </si>
+  <si>
+    <t>Wavelength</t>
+  </si>
+  <si>
+    <t>Transmissivity</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>F21 Ring</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF212121"/>
+      <name val="Courier New"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -144,9 +163,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -162,6 +184,1892 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Entire Wavelength Spectrum</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.0469816272965886E-2"/>
+          <c:y val="0.17171296296296298"/>
+          <c:w val="0.88386351706036748"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$16:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$16:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>64.712142069375474</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9180585537171284</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3142366064239423E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5563187164403915E-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3963347145331761E-9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D85A-2E4A-971A-9825B7A6B4A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="398146128"/>
+        <c:axId val="398147776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="398146128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="398147776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="398147776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="398146128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>125-165 GHz</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$16:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$16:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.5431460897767941E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5116009393901679E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2452255997108099E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.01600091562852E-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7472555927907301E-11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8D12-754E-92E4-7646A96071C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="390165376"/>
+        <c:axId val="390167024"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="390165376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="390167024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="390167024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="390165376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39024A6B-5ADE-DE4E-BDDE-E18C595A8B05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>527050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18F872BE-E8E3-804F-8C14-514D459AF305}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -461,17 +2369,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C257757-61FB-3746-8F00-5C0C3B0E4A50}">
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
@@ -481,83 +2390,86 @@
     <col min="14" max="14" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>12</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" t="s">
         <v>13</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>14</v>
       </c>
-      <c r="T1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>17</v>
       </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>300</v>
       </c>
@@ -594,8 +2506,8 @@
         <v>0.77546375952926361</v>
       </c>
       <c r="J2">
-        <f>((B2/2)^2*3.14159*C2)</f>
-        <v>0.15444523584484177</v>
+        <f>(B2*3.14159*C2)+(3.14159*(B2/2)^2)</f>
+        <v>1.418785418215998</v>
       </c>
       <c r="K2">
         <v>0.2</v>
@@ -605,8 +2517,8 @@
         <v>0.95</v>
       </c>
       <c r="M2">
-        <f>((5.67*10^-8)*J3*(A2^4-A3^4))/((1/K3)+(J3/J2)*((1/K2)-1))*L2</f>
-        <v>4.3279411406244046</v>
+        <f>((5.67*10^-8)*J2*(A2^4-A3^4))/((1/K3)+((J3/J2)*((1/K2)-1)))*L2</f>
+        <v>44.908878923801275</v>
       </c>
       <c r="N2">
         <f>D2/2</f>
@@ -617,39 +2529,43 @@
         <v>0.25400050800101603</v>
       </c>
       <c r="P2">
-        <f>(0.5/39.37)/N2</f>
-        <v>0.1</v>
+        <f>(0.5/39.37)/N3</f>
+        <v>0.1111111111111111</v>
       </c>
       <c r="Q2">
-        <f>O2/N2</f>
-        <v>2</v>
+        <f>O3/N3</f>
+        <v>2.1111111111111112</v>
       </c>
       <c r="R2">
-        <f>N3/N2</f>
-        <v>0.9</v>
+        <f>N2/N3</f>
+        <v>1.1111111111111112</v>
       </c>
       <c r="S2">
-        <f>O3/N2</f>
-        <v>1.9</v>
+        <f>O2/N3</f>
+        <v>2.2222222222222223</v>
       </c>
       <c r="T2">
-        <f>(1/(2*(Q2-1)))*(((Q2^2+R2^2+P2^2)^2-(2*R2*Q2)^2)^0.5-((Q2^2+S2^2+P2^2)^2-(2*Q2*S2)^2)^0.5+((1+S2^2+P2^2)^2-(2*S2)^2)^0.5-((1+R2^2+P2^2)^2-(2*R2)^2)^0.5)</f>
-        <v>2.5059419757112256</v>
+        <f>(1/(2*(Q2^2-1)))*(((Q2^2+R2^2+P2^2)^2-(2*R2*Q2)^2)^0.5-((Q2^2+S2^2+P2^2)^2-(2*Q2*S2)^2)^0.5+((1+S2^2+P2^2)^2-(2*S2)^2)^0.5-((1+R2^2+P2^2)^2-(2*R2)^2)^0.5)</f>
+        <v>0.89497927703972102</v>
       </c>
       <c r="U2">
-        <f>(5.67*10^-8)*(A2^4-A3^4)*((3.14*O2^2)-(3.14*N2^2))*T2</f>
-        <v>152.2011916864497</v>
+        <f>(((3.14159*O2*O2-3.14159*N2*N2)/(3.14159*O3*O3-3.14159*N3*N3)))^-1*T2</f>
+        <v>0.83531399190373967</v>
       </c>
       <c r="V2">
-        <f>U2*((K2+K3)/2)</f>
-        <v>24.352190669831952</v>
+        <f>(5.67*10^-8)*(A2^4-A3^4)*((3.14159*O2^2)-(3.14159*N2^2))*U2</f>
+        <v>50.759420572211482</v>
       </c>
       <c r="W2">
-        <f>V2+M2+H2</f>
-        <v>44.387634813307287</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+        <f>V2*(K2*(P11/(P11+P12))+K3*(P12/(P12+P11)))/2</f>
+        <v>4.0957601427232708</v>
+      </c>
+      <c r="X2">
+        <f>W2+M2+H2</f>
+        <v>64.712142069375474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>180</v>
       </c>
@@ -686,8 +2602,8 @@
         <v>0.7525729064346629</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J7" si="5">((B3/2)^2*3.14159*C3)</f>
-        <v>0.13474059783830403</v>
+        <f t="shared" ref="J3:J7" si="5">(B3*3.14159*C3)+(3.14159*(B3/2)^2)</f>
+        <v>1.299708784901441</v>
       </c>
       <c r="K3">
         <f>K2*(A3/A2)</f>
@@ -698,8 +2614,8 @@
         <v>0.94736842105263153</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M7" si="7">((5.67*10^-8)*J4*(A3^4-A4^4))/((1/K4)+(J4/J3)*((1/K3)-1))*L3</f>
-        <v>0.16524497304548874</v>
+        <f t="shared" ref="M3:M7" si="7">((5.67*10^-8)*J3*(A3^4-A4^4))/((1/K4)+((J4/J3)*((1/K3)-1)))*L3</f>
+        <v>1.8239980197828189</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N7" si="8">D3/2</f>
@@ -710,52 +2626,56 @@
         <v>0.24130048260096523</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P7" si="10">(0.5/39.37)/N3</f>
-        <v>0.1111111111111111</v>
+        <f t="shared" ref="P3:P7" si="10">(0.5/39.37)/N4</f>
+        <v>0.125</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q7" si="11">O3/N3</f>
-        <v>2.1111111111111112</v>
+        <f t="shared" ref="Q3:Q7" si="11">O4/N4</f>
+        <v>2.25</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R7" si="12">N4/N3</f>
-        <v>0.88888888888888884</v>
+        <f t="shared" ref="R3:R7" si="12">N3/N4</f>
+        <v>1.125</v>
       </c>
       <c r="S3">
-        <f>O4/N3</f>
-        <v>2</v>
+        <f t="shared" ref="S3:S7" si="13">O3/N4</f>
+        <v>2.375</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T7" si="13">(1/(2*(Q3-1)))*(((Q3^2+R3^2+P3^2)^2-(2*R3*Q3)^2)^0.5-((Q3^2+S3^2+P3^2)^2-(2*Q3*S3)^2)^0.5+((1+S3^2+P3^2)^2-(2*S3)^2)^0.5-((1+R3^2+P3^2)^2-(2*R3)^2)^0.5)</f>
-        <v>2.5925780899855604</v>
+        <f t="shared" ref="T3:T7" si="14">(1/(2*(Q3^2-1)))*(((Q3^2+R3^2+P3^2)^2-(2*R3*Q3)^2)^0.5-((Q3^2+S3^2+P3^2)^2-(2*Q3*S3)^2)^0.5+((1+S3^2+P3^2)^2-(2*S3)^2)^0.5-((1+R3^2+P3^2)^2-(2*R3)^2)^0.5)</f>
+        <v>0.89743087730269455</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U7" si="14">(5.67*10^-8)*(A3^4-A4^4)*((3.14*O3^2)-(3.14*N3^2))*T3</f>
-        <v>21.797264761168613</v>
+        <f t="shared" ref="U3:U7" si="15">(((3.14159*O3*O3-3.14159*N3*N3)/(3.14159*O4*O4-3.14159*N4*N4)))^-1*T3</f>
+        <v>0.83332867178107339</v>
       </c>
       <c r="V3">
-        <f t="shared" ref="V3:V7" si="15">U3*((K3+K4)/2)</f>
-        <v>1.6347948570876458</v>
+        <f t="shared" ref="V3:V7" si="16">(5.67*10^-8)*(A3^4-A4^4)*((3.14*O3^2)-(3.14*N3^2))*U3</f>
+        <v>7.0062636732327714</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W7" si="16">V3+M3+H3</f>
-        <v>3.6313654763212151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+        <f t="shared" ref="W3:W7" si="17">V3*(K3*(P12/(P12+O12))+K4*(P13/(P13+O13)))/2</f>
+        <v>0.26273488774622894</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ref="X3:X7" si="18">W3+M3+H3</f>
+        <v>3.9180585537171284</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>45</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B7" si="17">B3-(1/39.37)</f>
+        <f t="shared" ref="B4:B7" si="19">B3-(1/39.37)</f>
         <v>0.45720091440182886</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C7" si="18">C3-(1/39.37)</f>
+        <f t="shared" ref="C4:C7" si="20">C3-(1/39.37)</f>
         <v>0.7112014224028449</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D7" si="19">D3-(1/39.37)</f>
+        <f t="shared" ref="D4:D7" si="21">D3-(1/39.37)</f>
         <v>0.20320040640081283</v>
       </c>
       <c r="E4">
@@ -780,10 +2700,10 @@
       </c>
       <c r="J4">
         <f t="shared" si="5"/>
-        <v>0.11676059829870039</v>
+        <v>1.1856992423662267</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K7" si="20">K3*(A4/A3)</f>
+        <f t="shared" ref="K4:K7" si="22">K3*(A4/A3)</f>
         <v>0.03</v>
       </c>
       <c r="L4" s="1">
@@ -792,7 +2712,7 @@
       </c>
       <c r="M4">
         <f t="shared" si="7"/>
-        <v>5.4743995826519343E-5</v>
+        <v>6.438519981112464E-4</v>
       </c>
       <c r="N4">
         <f t="shared" si="8"/>
@@ -804,51 +2724,55 @@
       </c>
       <c r="P4">
         <f t="shared" si="10"/>
-        <v>0.125</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="Q4">
         <f t="shared" si="11"/>
-        <v>2.25</v>
+        <v>2.4285714285714284</v>
       </c>
       <c r="R4">
         <f t="shared" si="12"/>
-        <v>0.875</v>
+        <v>1.1428571428571428</v>
       </c>
       <c r="S4">
-        <f t="shared" ref="S4:S7" si="21">O5/N4</f>
-        <v>2.125</v>
+        <f t="shared" si="13"/>
+        <v>2.5714285714285716</v>
       </c>
       <c r="T4">
-        <f t="shared" si="13"/>
-        <v>2.7008908930671338</v>
+        <f t="shared" si="14"/>
+        <v>0.90029696435570927</v>
       </c>
       <c r="U4">
-        <f t="shared" si="14"/>
-        <v>8.2684711609867886E-2</v>
+        <f t="shared" si="15"/>
+        <v>0.8310433517129624</v>
       </c>
       <c r="V4">
-        <f t="shared" si="15"/>
-        <v>1.3505169562945086E-3</v>
+        <f t="shared" si="16"/>
+        <v>2.5441449726113136E-2</v>
       </c>
       <c r="W4">
-        <f t="shared" si="16"/>
-        <v>6.8678737210038001E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>2.0777183942992391E-4</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="18"/>
+        <v>6.3142366064239423E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.43180086360172726</v>
       </c>
       <c r="C5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.68580137160274335</v>
       </c>
       <c r="D5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.17780035560071122</v>
       </c>
       <c r="E5">
@@ -873,10 +2797,10 @@
       </c>
       <c r="J5">
         <f t="shared" si="5"/>
-        <v>0.10042801460810837</v>
+        <v>1.0767567906103557</v>
       </c>
       <c r="K5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2.6666666666666666E-3</v>
       </c>
       <c r="L5" s="1">
@@ -885,7 +2809,7 @@
       </c>
       <c r="M5">
         <f t="shared" si="7"/>
-        <v>8.697082390698504E-10</v>
+        <v>1.0777230229225118E-8</v>
       </c>
       <c r="N5">
         <f t="shared" si="8"/>
@@ -897,51 +2821,55 @@
       </c>
       <c r="P5">
         <f t="shared" si="10"/>
-        <v>0.14285714285714285</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="Q5">
         <f t="shared" si="11"/>
-        <v>2.4285714285714284</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="R5">
         <f t="shared" si="12"/>
-        <v>0.8571428571428571</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="S5">
-        <f t="shared" si="21"/>
-        <v>2.2857142857142856</v>
+        <f t="shared" si="13"/>
+        <v>2.8333333333333335</v>
       </c>
       <c r="T5">
-        <f t="shared" si="13"/>
-        <v>2.8401740640483784</v>
+        <f t="shared" si="14"/>
+        <v>0.9036917476517583</v>
       </c>
       <c r="U5">
-        <f t="shared" si="14"/>
-        <v>4.9118336713538116E-6</v>
+        <f t="shared" si="15"/>
+        <v>0.82838410201411183</v>
       </c>
       <c r="V5">
-        <f t="shared" si="15"/>
-        <v>9.0050283974819871E-9</v>
+        <f t="shared" si="16"/>
+        <v>1.4326181541448643E-6</v>
       </c>
       <c r="W5">
-        <f t="shared" si="16"/>
-        <v>2.5341614474339973E-7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>1.3132333079661255E-9</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="18"/>
+        <v>2.5563187164403915E-7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1.5</v>
       </c>
       <c r="B6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.40640081280162565</v>
       </c>
       <c r="C6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.6604013208026418</v>
       </c>
       <c r="D6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.15240030480060962</v>
       </c>
       <c r="E6">
@@ -966,10 +2894,10 @@
       </c>
       <c r="J6">
         <f t="shared" si="5"/>
-        <v>8.5665624148605596E-2</v>
+        <v>0.9728814296338274</v>
       </c>
       <c r="K6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E-3</v>
       </c>
       <c r="L6" s="1">
@@ -978,7 +2906,7 @@
       </c>
       <c r="M6">
         <f t="shared" si="7"/>
-        <v>1.2295741093572566E-12</v>
+        <v>1.6467998002624163E-11</v>
       </c>
       <c r="N6">
         <f t="shared" si="8"/>
@@ -990,51 +2918,55 @@
       </c>
       <c r="P6">
         <f t="shared" si="10"/>
-        <v>0.16666666666666666</v>
+        <v>0.2</v>
       </c>
       <c r="Q6">
         <f t="shared" si="11"/>
-        <v>2.6666666666666665</v>
+        <v>3</v>
       </c>
       <c r="R6">
         <f t="shared" si="12"/>
-        <v>0.83333333333333337</v>
+        <v>1.2</v>
       </c>
       <c r="S6">
-        <f t="shared" si="21"/>
-        <v>2.5</v>
+        <f t="shared" si="13"/>
+        <v>3.2</v>
       </c>
       <c r="T6">
-        <f t="shared" si="13"/>
-        <v>3.0259171975280039</v>
+        <f t="shared" si="14"/>
+        <v>0.90777515925840391</v>
       </c>
       <c r="U6">
-        <f t="shared" si="14"/>
-        <v>9.6773859995480204E-8</v>
+        <f t="shared" si="15"/>
+        <v>0.82525014478036696</v>
       </c>
       <c r="V6">
-        <f t="shared" si="15"/>
-        <v>5.161272533092278E-11</v>
+        <f t="shared" si="16"/>
+        <v>2.6392870907858309E-8</v>
       </c>
       <c r="W6">
-        <f t="shared" si="16"/>
-        <v>3.4256709170620697E-9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>7.0380989087622162E-12</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="18"/>
+        <v>3.3963347145331761E-9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.1</v>
       </c>
       <c r="B7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.38100076200152405</v>
       </c>
       <c r="C7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.63500127000254025</v>
       </c>
       <c r="D7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.12700025400050802</v>
       </c>
       <c r="E7">
@@ -1059,10 +2991,10 @@
       </c>
       <c r="J7">
         <f t="shared" si="5"/>
-        <v>7.2396204302269604E-2</v>
+        <v>0.87407315943664177</v>
       </c>
       <c r="K7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>6.666666666666667E-5</v>
       </c>
       <c r="L7" s="1">
@@ -1081,73 +3013,400 @@
         <f t="shared" si="9"/>
         <v>0.19050038100076203</v>
       </c>
-      <c r="P7">
+      <c r="P7" t="e">
         <f t="shared" si="10"/>
-        <v>0.2</v>
-      </c>
-      <c r="Q7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q7" t="e">
         <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="R7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R7" t="e">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="T7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S7" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="U7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T7" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="V7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U7" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="W7" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V7" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="M9">
-        <f>((5.67*10^-8)*J3*(A2^4-A3^4))/((1/K2)+(J2/J3)*(1/K3)-1)*L2</f>
-        <v>3.7757679834330742</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="M10">
-        <f t="shared" ref="M10:M13" si="22">((5.67*10^-8)*J4*(A3^4-A4^4))/((1/K3)+(J3/J4)*(1/K4)-1)*L3</f>
-        <v>0.1431944211929195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="M11">
-        <f t="shared" si="22"/>
-        <v>4.7086353553166937E-5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="M12">
-        <f t="shared" si="22"/>
-        <v>7.4186569771228066E-10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="M13">
-        <f t="shared" si="22"/>
-        <v>1.0391157399541119E-12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="M14" t="e">
-        <f>((5.67*10^-8)*J8*(A7^4-A8^4))/((1/K7)+(J7/J8)*(1/K8)-1)*L7</f>
+      <c r="W7" t="e">
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
+      </c>
+      <c r="X7" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="P10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="O11">
+        <f>3.14159*O2*O2-3.14159*N2*N2</f>
+        <v>0.15201272338028551</v>
+      </c>
+      <c r="P11">
+        <f>O11-N11</f>
+        <v>0.15201272338028551</v>
+      </c>
+      <c r="V11">
+        <f>K2*(P11/(P11+P12))</f>
+        <v>0.10344827586206895</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="O12">
+        <f t="shared" ref="O12:O15" si="23">3.14159*O3*O3-3.14159*N3*N3</f>
+        <v>0.14187854182159981</v>
+      </c>
+      <c r="P12">
+        <f t="shared" ref="P12:P16" si="24">O12-N12</f>
+        <v>0.14187854182159981</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="O13">
+        <f t="shared" si="23"/>
+        <v>0.13174436026291408</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="24"/>
+        <v>0.13174436026291408</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="O14">
+        <f t="shared" si="23"/>
+        <v>0.1216101787042284</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="24"/>
+        <v>0.1216101787042284</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="O15">
+        <f t="shared" si="23"/>
+        <v>0.11147599714554271</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="24"/>
+        <v>0.11147599714554271</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" ref="A16:A21" si="25">A2</f>
+        <v>300</v>
+      </c>
+      <c r="B16">
+        <f>X2</f>
+        <v>64.712142069375474</v>
+      </c>
+      <c r="C16" s="3">
+        <v>7.7157304488839693E-5</v>
+      </c>
+      <c r="D16" s="2">
+        <f>C16*K2</f>
+        <v>1.5431460897767941E-5</v>
+      </c>
+      <c r="O16">
+        <f>3.14159*O7*O7-3.14159*N7*N7</f>
+        <v>0.10134181558685698</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="24"/>
+        <v>0.10134181558685698</v>
+      </c>
+      <c r="S16">
+        <v>2.9979199999999998E-3</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="25"/>
+        <v>180</v>
+      </c>
+      <c r="B17">
+        <f>X3</f>
+        <v>3.9180585537171284</v>
+      </c>
+      <c r="C17" s="3">
+        <v>4.5930007828251403E-5</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" ref="D17:D20" si="26">C17*K3</f>
+        <v>5.5116009393901679E-6</v>
+      </c>
+      <c r="S17">
+        <v>8.5654999999999998E-4</v>
+      </c>
+      <c r="T17">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="25"/>
+        <v>45</v>
+      </c>
+      <c r="B18">
+        <f>X4</f>
+        <v>6.3142366064239423E-3</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1.08174186657027E-5</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="26"/>
+        <v>3.2452255997108099E-7</v>
+      </c>
+      <c r="S18">
+        <v>5.9957999999999995E-4</v>
+      </c>
+      <c r="T18">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <f>X5</f>
+        <v>2.5563187164403915E-7</v>
+      </c>
+      <c r="C19" s="3">
+        <v>3.8100034336069501E-7</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="26"/>
+        <v>1.01600091562852E-9</v>
+      </c>
+      <c r="S19">
+        <v>5.0812000000000003E-4</v>
+      </c>
+      <c r="T19">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="25"/>
+        <v>1.5</v>
+      </c>
+      <c r="B20">
+        <f>X6</f>
+        <v>3.3963347145331761E-9</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1.74725559279073E-8</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="26"/>
+        <v>1.7472555927907301E-11</v>
+      </c>
+      <c r="S20">
+        <v>3.7473999999999998E-4</v>
+      </c>
+      <c r="T20">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="25"/>
+        <v>0.1</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="2"/>
+      <c r="S21">
+        <v>3.3310000000000002E-4</v>
+      </c>
+      <c r="T21">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S22">
+        <v>2.9978999999999997E-4</v>
+      </c>
+      <c r="T22">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S23">
+        <v>2.3060999999999999E-4</v>
+      </c>
+      <c r="T23">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S24">
+        <v>1.9341000000000001E-4</v>
+      </c>
+      <c r="T24">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S25">
+        <v>1.6655000000000001E-4</v>
+      </c>
+      <c r="T25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S26">
+        <v>1.4990000000000001E-4</v>
+      </c>
+      <c r="T26">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S27">
+        <v>1.1992E-4</v>
+      </c>
+      <c r="T27">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S28" s="2">
+        <v>7.4950000000000006E-5</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAAFF570-06EE-8A49-A708-1C69F5C420EA}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>17.5</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>23.5</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>40</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>50</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>100</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>200</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>400</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>500</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>650</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1000</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
